--- a/data/trans_dic/P3A$yo-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P3A$yo-Estudios-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.8499123760959674</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7314493897883894</v>
+        <v>0.7314493897883892</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5266119631917289</v>
+        <v>0.5217587715503145</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8300606276199824</v>
+        <v>0.8295430156455</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7115306500885862</v>
+        <v>0.7120399219677938</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6039198933531404</v>
+        <v>0.6016207632873242</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8696318934209143</v>
+        <v>0.8679476213913802</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7529417866640044</v>
+        <v>0.7521460541486779</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.6556686479915284</v>
+        <v>0.6556686479915281</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.9296610601087985</v>
+        <v>0.9296610601087986</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7908175409562966</v>
+        <v>0.7908175409562967</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6301302141120143</v>
+        <v>0.6314591488625901</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9145594453011383</v>
+        <v>0.912153602066727</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7733667420011306</v>
+        <v>0.7756254815930476</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6796230500464844</v>
+        <v>0.6784934937445579</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9415322576112671</v>
+        <v>0.940295692843397</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.803308908543271</v>
+        <v>0.8060260810380427</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.7231770539783408</v>
+        <v>0.7231770539783406</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.9022445402565918</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8141524249724187</v>
+        <v>0.8141524249724185</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6817122890434091</v>
+        <v>0.6846426749122295</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8776138490187141</v>
+        <v>0.8767209793810076</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7903732733157278</v>
+        <v>0.7913382741718494</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7596664915891217</v>
+        <v>0.7607648266616532</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9233724151027942</v>
+        <v>0.924151368446938</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8360262565622475</v>
+        <v>0.8355976198216687</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6371840888403917</v>
+        <v>0.6366219593928645</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8965510114660235</v>
+        <v>0.8969914141738109</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7735229033270088</v>
+        <v>0.7739028499879654</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6730632244660452</v>
+        <v>0.6712891499527603</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9161824702660657</v>
+        <v>0.9161751693897939</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7950746560964312</v>
+        <v>0.794458684900362</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>304660</v>
+        <v>301853</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>682341</v>
+        <v>681916</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>996546</v>
+        <v>997260</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>349385</v>
+        <v>348055</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>714870</v>
+        <v>713486</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1054545</v>
+        <v>1053431</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1404858</v>
+        <v>1407821</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1984728</v>
+        <v>1979507</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3402520</v>
+        <v>3412457</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1515201</v>
+        <v>1512683</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>2043263</v>
+        <v>2040580</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>3534254</v>
+        <v>3546208</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>485098</v>
+        <v>487183</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>644938</v>
+        <v>644282</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1143246</v>
+        <v>1144642</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>540569</v>
+        <v>541350</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>678565</v>
+        <v>679138</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1209282</v>
+        <v>1208662</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2242627</v>
+        <v>2240648</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3341501</v>
+        <v>3343143</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5605451</v>
+        <v>5608205</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2368907</v>
+        <v>2362663</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>3414669</v>
+        <v>3414642</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5761629</v>
+        <v>5757166</v>
       </c>
     </row>
     <row r="20">
